--- a/excelTemplate/EmptyStock.xlsx
+++ b/excelTemplate/EmptyStock.xlsx
@@ -181,10 +181,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%=rs1.invoice_vessel_ata%&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Gate Out Terminal Date</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -246,6 +242,10 @@
   </si>
   <si>
     <t>&lt;%=rs1.invoice_containers_gate_remark%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.discharge_date%&gt;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +484,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -519,7 +519,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -731,7 +731,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -767,28 +767,28 @@
         <v>30</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>39</v>
-      </c>
       <c r="K1" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -805,31 +805,31 @@
         <v>29</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="19" t="s">
-        <v>41</v>
-      </c>
       <c r="K2" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/excelTemplate/EmptyStock.xlsx
+++ b/excelTemplate/EmptyStock.xlsx
@@ -52,6 +52,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>/</t>
@@ -100,6 +101,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -161,19 +163,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Line</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.invoice_containers_no%&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.invoice_containers_size%&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.invoice_containers_bl_line%&gt;</t>
+    <t>Owner</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -185,7 +175,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%=rs1.invoice_containers_gate_out_terminal_date%&gt;</t>
+    <t>Gate In Depot Date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gate Out Depot Date</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -193,7 +187,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%=rs1.invoice_containers_gate_in_terminal_date%&gt;</t>
+    <t>Loading Date</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -201,11 +195,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%=rs1.invoice_containers_depot_name%&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gate In Depot Date</t>
+    <t>Storing Days</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -213,39 +203,327 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%=rs1.invoice_containers_actually_return_date%&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.invoice_containers_detention_days%&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gate Out Depot Date</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.invoice_containers_actually_gate_out_date%&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Storing Days</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.invoice_containers_storing_days%&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.invoice_containers_gate_remark%&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.discharge_date%&gt;</t>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>empty_stock_container_no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>empty_stock_size_type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>empty_stock_container_owner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>empty_stock_discharge_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>empty_stock_gate_out_terminal_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>empty_stock_gate_in_depot_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>empty_stock_gate_out_depot_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>empty_stock_gate_in_terminal_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>empty_stock_loading_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>empty_stock_depot_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>empty_stock_storing_days</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>empty_stock_detention_days</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -253,7 +531,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,17 +567,28 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -356,7 +645,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -420,7 +709,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -730,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -740,10 +1032,11 @@
     <col min="2" max="2" width="23.875" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.625" style="19" customWidth="1"/>
     <col min="5" max="5" width="18.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="26.25" style="19" customWidth="1"/>
+    <col min="8" max="8" width="23.875" style="19" customWidth="1"/>
     <col min="9" max="9" width="24.375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="23.625" style="19" customWidth="1"/>
     <col min="11" max="11" width="25" style="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.625" style="19" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29.375" style="19" bestFit="1" customWidth="1"/>
@@ -764,72 +1057,72 @@
         <v>26</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="I1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="J1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="L1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="20" t="s">
         <v>35</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="19" t="s">
+      <c r="B2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="22" t="s">
         <v>47</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
